--- a/projetos/preProjetoRenas/orçamento.xlsx
+++ b/projetos/preProjetoRenas/orçamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BB607A-BE35-4E98-BAC9-0D80C66A59BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F0992-82BE-4BA8-9306-6E5E2C32FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E95825D-2129-454F-93B8-6D0A5735ED46}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Custos Diretos</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Meses</t>
+  </si>
+  <si>
+    <t>TOTAL/H</t>
+  </si>
+  <si>
+    <t>TOTAL/DIAS</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -197,22 +203,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +542,7 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,14 +556,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -563,12 +572,12 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -604,17 +613,17 @@
         <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
         <f>D4*F4*E4</f>
-        <v>245</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -625,17 +634,17 @@
         <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G12" si="0">D5*F5*E5</f>
-        <v>360</v>
+        <f t="shared" ref="G5:G11" si="0">D5*F5*E5</f>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -646,17 +655,17 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
@@ -667,17 +676,17 @@
         <v>8</v>
       </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -688,17 +697,17 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -709,17 +718,17 @@
         <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
@@ -730,17 +739,17 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -751,73 +760,89 @@
         <v>16</v>
       </c>
       <c r="D11" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7">
-        <v>15</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="D12" s="5">
         <v>20</v>
       </c>
-      <c r="G12" s="8">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6">
         <f>D12*F12</f>
-        <v>300</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11">
+        <f>SUM(D4:D12)</f>
+        <v>240</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="3">
         <f>SUM(G4:G12)</f>
-        <v>2005</v>
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="11">
+        <f>D13/24</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
@@ -855,12 +880,12 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E21" s="4" t="s">

--- a/projetos/preProjetoRenas/orçamento.xlsx
+++ b/projetos/preProjetoRenas/orçamento.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\GITHUB\opa\SENAI2023\projetos\preProjetoRenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F0992-82BE-4BA8-9306-6E5E2C32FB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C42871B-20D5-48B9-882B-BAE5C5999B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E95825D-2129-454F-93B8-6D0A5735ED46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Orcamento" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Custos Diretos</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>TOTAL/DIAS</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>CUSTO TOTAL</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>FRONTEND</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
   </si>
 </sst>
 </file>
@@ -123,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +178,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -186,12 +220,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,16 +272,24 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,31 +607,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69869FFD-CC36-4E60-BA0E-F8D5101A44F8}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="C1:M30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+    <row r="1" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -571,375 +635,469 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1"/>
+    <row r="2" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="3:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <f>D4*F4*E4</f>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>65</v>
+      </c>
+      <c r="H5" s="3">
+        <f>E5*G5*F5</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" ref="H6:H17" si="0">E6*G6*F6</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>30</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" ref="G5:G11" si="0">D5*F5*E5</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="H11" s="3">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>50</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>75</v>
+      </c>
+      <c r="H18" s="6">
+        <f>E18*G18</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="9">
+        <f>SUM(E5:E18)</f>
+        <v>120</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="3">
+        <f>SUM(H5:H18)</f>
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9">
+        <f>E19/4</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="12">
+        <f>H18</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6">
-        <f>D12*F12</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="11">
-        <f>SUM(D4:D12)</f>
-        <v>240</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="G26" s="3">
+        <f>E26*F26</f>
+        <v>840</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="3"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3">
-        <f>SUM(G4:G12)</f>
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="11">
-        <f>D13/24</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2">
-        <v>70</v>
-      </c>
-      <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3">
-        <f>D19*E19</f>
+      <c r="G28" s="3">
+        <f>SUM(G26:G27)</f>
         <v>840</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3">
-        <f>SUM(F19:F20)</f>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
+    <row r="29" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="15">
+        <f>H19+G28</f>
+        <v>6060</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B15:F17"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="C24:G24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
